--- a/data/invoices.xlsx
+++ b/data/invoices.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sriram/Workspace/import_service/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sriram\Workspace\import-service\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D116D13B-4C7F-104D-8BAF-263A2C00BB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BA30F5-BE14-46D3-B72D-590A264C32F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E4EEF30B-89BC-094E-9185-23D0393AEF46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E4EEF30B-89BC-094E-9185-23D0393AEF46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$68</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="269">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -68,26 +71,799 @@
     <t>DiscountAmount</t>
   </si>
   <si>
-    <t>KUBE000004</t>
-  </si>
-  <si>
-    <t>JOB-0</t>
-  </si>
-  <si>
-    <t>activity</t>
+    <t>Invoice number</t>
+  </si>
+  <si>
+    <t>Employee Name</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>ClientId</t>
+  </si>
+  <si>
+    <t>Void Reason</t>
+  </si>
+  <si>
+    <t>KUBE000389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timesheet </t>
+  </si>
+  <si>
+    <t>04/13/2020</t>
+  </si>
+  <si>
+    <t>05/28/2020</t>
+  </si>
+  <si>
+    <t>06/03/2020</t>
+  </si>
+  <si>
+    <t>INVOICE#1748</t>
+  </si>
+  <si>
+    <t>Shampad Guha Ayan</t>
+  </si>
+  <si>
+    <t>Cambay Consulting, LLC</t>
+  </si>
+  <si>
+    <t>CLN-063</t>
+  </si>
+  <si>
+    <t>03/12/2020</t>
+  </si>
+  <si>
+    <t>04/26/2020</t>
+  </si>
+  <si>
+    <t>04/29/2020</t>
+  </si>
+  <si>
+    <t>INVOICE#1719</t>
+  </si>
+  <si>
+    <t>10/16/2018</t>
+  </si>
+  <si>
+    <t>11/15/2018</t>
+  </si>
+  <si>
+    <t>08/21/2019</t>
+  </si>
+  <si>
+    <t>INVOICE#1180</t>
+  </si>
+  <si>
+    <t>Computer Aid, Inc.</t>
+  </si>
+  <si>
+    <t>CLN-079</t>
+  </si>
+  <si>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>10/07/2018</t>
+  </si>
+  <si>
+    <t>10/15/2018</t>
+  </si>
+  <si>
+    <t>INVOICE#1119</t>
+  </si>
+  <si>
+    <t>08/07/2018</t>
+  </si>
+  <si>
+    <t>09/06/2018</t>
+  </si>
+  <si>
+    <t>INVOICE#1088</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>11/19/2018</t>
+  </si>
+  <si>
+    <t>INVOICE#1066</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>INVOICE#1060</t>
+  </si>
+  <si>
+    <t>KUBE000392</t>
+  </si>
+  <si>
+    <t>12/06/2021</t>
+  </si>
+  <si>
+    <t>01/20/2022</t>
+  </si>
+  <si>
+    <t>01/27/2022</t>
+  </si>
+  <si>
+    <t>INVOICE#2247</t>
+  </si>
+  <si>
+    <t>Vamsi krishna Ravipati</t>
+  </si>
+  <si>
+    <t>Computer Enterprises, Inc.</t>
+  </si>
+  <si>
+    <t>CLN-080</t>
+  </si>
+  <si>
+    <t>11/03/2021</t>
+  </si>
+  <si>
+    <t>12/18/2021</t>
+  </si>
+  <si>
+    <t>01/11/2022</t>
+  </si>
+  <si>
+    <t>INVOICE#2227</t>
+  </si>
+  <si>
+    <t>09/30/2021</t>
+  </si>
+  <si>
+    <t>11/14/2021</t>
+  </si>
+  <si>
+    <t>11/24/2021</t>
+  </si>
+  <si>
+    <t>INVOICE#2192</t>
+  </si>
+  <si>
+    <t>09/14/2021</t>
+  </si>
+  <si>
+    <t>10/29/2021</t>
+  </si>
+  <si>
+    <t>INVOICE#2183</t>
+  </si>
+  <si>
+    <t>07/30/2021</t>
+  </si>
+  <si>
+    <t>09/13/2021</t>
+  </si>
+  <si>
+    <t>11/08/2021</t>
+  </si>
+  <si>
+    <t>INVOICE#2141</t>
+  </si>
+  <si>
+    <t>07/06/2021</t>
+  </si>
+  <si>
+    <t>08/20/2021</t>
+  </si>
+  <si>
+    <t>09/03/2021</t>
+  </si>
+  <si>
+    <t>INVOICE#2117</t>
+  </si>
+  <si>
+    <t>06/09/2021</t>
+  </si>
+  <si>
+    <t>07/24/2021</t>
+  </si>
+  <si>
+    <t>08/11/2021</t>
+  </si>
+  <si>
+    <t>INVOICE#2106</t>
+  </si>
+  <si>
+    <t>05/03/2021</t>
+  </si>
+  <si>
+    <t>06/17/2021</t>
+  </si>
+  <si>
+    <t>07/09/2021</t>
+  </si>
+  <si>
+    <t>INVOICE#2075</t>
+  </si>
+  <si>
+    <t>04/01/2021</t>
+  </si>
+  <si>
+    <t>05/16/2021</t>
+  </si>
+  <si>
+    <t>05/21/2021</t>
+  </si>
+  <si>
+    <t>INVOICE#2054</t>
+  </si>
+  <si>
+    <t>03/01/2021</t>
+  </si>
+  <si>
+    <t>04/15/2021</t>
+  </si>
+  <si>
+    <t>05/07/2021</t>
+  </si>
+  <si>
+    <t>INVOICE#2034</t>
+  </si>
+  <si>
+    <t>02/01/2021</t>
+  </si>
+  <si>
+    <t>03/18/2021</t>
+  </si>
+  <si>
+    <t>03/31/2021</t>
+  </si>
+  <si>
+    <t>INVOICE#2006</t>
+  </si>
+  <si>
+    <t>01/04/2021</t>
+  </si>
+  <si>
+    <t>02/18/2021</t>
+  </si>
+  <si>
+    <t>02/26/2021</t>
+  </si>
+  <si>
+    <t>INVOICE#1981</t>
+  </si>
+  <si>
+    <t>12/07/2020</t>
+  </si>
+  <si>
+    <t>01/21/2021</t>
+  </si>
+  <si>
+    <t>02/16/2021</t>
+  </si>
+  <si>
+    <t>INVOICE#1958</t>
+  </si>
+  <si>
+    <t>11/04/2020</t>
+  </si>
+  <si>
+    <t>12/19/2020</t>
+  </si>
+  <si>
+    <t>01/19/2021</t>
+  </si>
+  <si>
+    <t>INVOICE#1934</t>
+  </si>
+  <si>
+    <t>10/05/2020</t>
+  </si>
+  <si>
+    <t>11/19/2020</t>
+  </si>
+  <si>
+    <t>12/21/2020</t>
+  </si>
+  <si>
+    <t>INVOICE#1905</t>
+  </si>
+  <si>
+    <t>09/09/2020</t>
+  </si>
+  <si>
+    <t>10/24/2020</t>
+  </si>
+  <si>
+    <t>11/12/2020</t>
+  </si>
+  <si>
+    <t>INVOICE#1888</t>
+  </si>
+  <si>
+    <t>08/03/2020</t>
+  </si>
+  <si>
+    <t>09/17/2020</t>
+  </si>
+  <si>
+    <t>INVOICE#1853</t>
+  </si>
+  <si>
+    <t>07/06/2020</t>
+  </si>
+  <si>
+    <t>08/20/2020</t>
+  </si>
+  <si>
+    <t>08/31/2020</t>
+  </si>
+  <si>
+    <t>INVOICE#1833</t>
+  </si>
+  <si>
+    <t>06/02/2020</t>
+  </si>
+  <si>
+    <t>07/17/2020</t>
+  </si>
+  <si>
+    <t>08/05/2020</t>
+  </si>
+  <si>
+    <t>INVOICE#1796</t>
+  </si>
+  <si>
+    <t>05/05/2020</t>
+  </si>
+  <si>
+    <t>06/19/2020</t>
+  </si>
+  <si>
+    <t>06/24/2020</t>
+  </si>
+  <si>
+    <t>INVOICE#1775</t>
+  </si>
+  <si>
+    <t>05/13/2020</t>
+  </si>
+  <si>
+    <t>06/01/2020</t>
+  </si>
+  <si>
+    <t>INVOICE#1741</t>
+  </si>
+  <si>
+    <t>03/04/2020</t>
+  </si>
+  <si>
+    <t>04/18/2020</t>
+  </si>
+  <si>
+    <t>05/19/2020</t>
+  </si>
+  <si>
+    <t>INVOICE#1699</t>
+  </si>
+  <si>
+    <t>02/25/2020</t>
+  </si>
+  <si>
+    <t>03/26/2020</t>
+  </si>
+  <si>
+    <t>04/28/2020</t>
+  </si>
+  <si>
+    <t>INVOICE#1692</t>
+  </si>
+  <si>
+    <t>04/17/2020</t>
+  </si>
+  <si>
+    <t>INVOICE#1691</t>
+  </si>
+  <si>
+    <t>12/04/2019</t>
+  </si>
+  <si>
+    <t>01/03/2020</t>
+  </si>
+  <si>
+    <t>02/14/2020</t>
+  </si>
+  <si>
+    <t>INVOICE#1610</t>
+  </si>
+  <si>
+    <t>11/04/2019</t>
+  </si>
+  <si>
+    <t>12/30/2019</t>
+  </si>
+  <si>
+    <t>INVOICE#1583</t>
+  </si>
+  <si>
+    <t>10/08/2019</t>
+  </si>
+  <si>
+    <t>11/07/2019</t>
+  </si>
+  <si>
+    <t>12/05/2019</t>
+  </si>
+  <si>
+    <t>INVOICE#1548</t>
+  </si>
+  <si>
+    <t>09/03/2019</t>
+  </si>
+  <si>
+    <t>10/03/2019</t>
+  </si>
+  <si>
+    <t>11/08/2019</t>
+  </si>
+  <si>
+    <t>INVOICE#1512</t>
+  </si>
+  <si>
+    <t>08/05/2019</t>
+  </si>
+  <si>
+    <t>09/19/2019</t>
+  </si>
+  <si>
+    <t>09/30/2019</t>
+  </si>
+  <si>
+    <t>INVOICE#1482</t>
+  </si>
+  <si>
+    <t>07/15/2019</t>
+  </si>
+  <si>
+    <t>08/14/2019</t>
+  </si>
+  <si>
+    <t>09/10/2019</t>
+  </si>
+  <si>
+    <t>INVOICE#1472</t>
+  </si>
+  <si>
+    <t>06/03/2019</t>
+  </si>
+  <si>
+    <t>07/03/2019</t>
+  </si>
+  <si>
+    <t>08/01/2019</t>
+  </si>
+  <si>
+    <t>INVOICE#1422</t>
+  </si>
+  <si>
+    <t>05/07/2019</t>
+  </si>
+  <si>
+    <t>06/06/2019</t>
+  </si>
+  <si>
+    <t>07/05/2019</t>
+  </si>
+  <si>
+    <t>INVOICE#1397</t>
+  </si>
+  <si>
+    <t>04/02/2019</t>
+  </si>
+  <si>
+    <t>05/02/2019</t>
+  </si>
+  <si>
+    <t>05/29/2019</t>
+  </si>
+  <si>
+    <t>INVOICE#1359</t>
+  </si>
+  <si>
+    <t>03/04/2019</t>
+  </si>
+  <si>
+    <t>04/03/2019</t>
+  </si>
+  <si>
+    <t>05/03/2019</t>
+  </si>
+  <si>
+    <t>INVOICE#1329</t>
+  </si>
+  <si>
+    <t>02/06/2019</t>
+  </si>
+  <si>
+    <t>03/08/2019</t>
+  </si>
+  <si>
+    <t>INVOICE#1298</t>
+  </si>
+  <si>
+    <t>01/07/2019</t>
+  </si>
+  <si>
+    <t>INVOICE#1268</t>
+  </si>
+  <si>
+    <t>12/07/2018</t>
+  </si>
+  <si>
+    <t>01/21/2019</t>
+  </si>
+  <si>
+    <t>02/19/2019</t>
+  </si>
+  <si>
+    <t>INVOICE#1244</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>INVOICE#1243</t>
+  </si>
+  <si>
+    <t>09/06/2019</t>
+  </si>
+  <si>
+    <t>10/06/2019</t>
+  </si>
+  <si>
+    <t>04/18/2019</t>
+  </si>
+  <si>
+    <t>04/20/2019</t>
+  </si>
+  <si>
+    <t>03/29/2019</t>
+  </si>
+  <si>
+    <t>08/21/2020</t>
+  </si>
+  <si>
+    <t>09/20/2020</t>
+  </si>
+  <si>
+    <t>09/25/2020</t>
+  </si>
+  <si>
+    <t>INVOICE#1877</t>
+  </si>
+  <si>
+    <t>Fuel Talent LLC</t>
+  </si>
+  <si>
+    <t>CLN-095</t>
+  </si>
+  <si>
+    <t>INVOICE#1876</t>
+  </si>
+  <si>
+    <t>08/06/2020</t>
+  </si>
+  <si>
+    <t>09/05/2020</t>
+  </si>
+  <si>
+    <t>09/02/2020</t>
+  </si>
+  <si>
+    <t>INVOICE#1865</t>
+  </si>
+  <si>
+    <t>INVOICE#1864</t>
+  </si>
+  <si>
+    <t>06/04/2019</t>
+  </si>
+  <si>
+    <t>07/19/2019</t>
+  </si>
+  <si>
+    <t>08/16/2019</t>
+  </si>
+  <si>
+    <t>INVOICE#1426</t>
+  </si>
+  <si>
+    <t>Global Resource Management Inc</t>
+  </si>
+  <si>
+    <t>CLN-100</t>
+  </si>
+  <si>
+    <t>05/09/2019</t>
+  </si>
+  <si>
+    <t>06/23/2019</t>
+  </si>
+  <si>
+    <t>08/02/2019</t>
+  </si>
+  <si>
+    <t>INVOICE#1402</t>
+  </si>
+  <si>
+    <t>05/18/2019</t>
+  </si>
+  <si>
+    <t>07/02/2019</t>
+  </si>
+  <si>
+    <t>INVOICE#1367</t>
+  </si>
+  <si>
+    <t>03/06/2019</t>
+  </si>
+  <si>
+    <t>05/28/2019</t>
+  </si>
+  <si>
+    <t>INVOICE#1336</t>
+  </si>
+  <si>
+    <t>02/12/2019</t>
+  </si>
+  <si>
+    <t>05/13/2019</t>
+  </si>
+  <si>
+    <t>INVOICE#1309</t>
+  </si>
+  <si>
+    <t>INVOICE#1308</t>
+  </si>
+  <si>
+    <t>02/15/2021</t>
+  </si>
+  <si>
+    <t>03/24/2021</t>
+  </si>
+  <si>
+    <t>INVOICE#2025</t>
+  </si>
+  <si>
+    <t>Infinite Computer Solutions Inc</t>
+  </si>
+  <si>
+    <t>CLN-106</t>
+  </si>
+  <si>
+    <t>01/13/2021</t>
+  </si>
+  <si>
+    <t>02/27/2021</t>
+  </si>
+  <si>
+    <t>03/10/2021</t>
+  </si>
+  <si>
+    <t>INVOICE#1994</t>
+  </si>
+  <si>
+    <t>12/08/2020</t>
+  </si>
+  <si>
+    <t>01/22/2021</t>
+  </si>
+  <si>
+    <t>INVOICE#1965</t>
+  </si>
+  <si>
+    <t>10/11/2019</t>
+  </si>
+  <si>
+    <t>11/10/2019</t>
+  </si>
+  <si>
+    <t>02/05/2020</t>
+  </si>
+  <si>
+    <t>INVOICE#1558</t>
+  </si>
+  <si>
+    <t>Next Level Business Services, Inc</t>
+  </si>
+  <si>
+    <t>CLN-129</t>
+  </si>
+  <si>
+    <t>10/19/2019</t>
+  </si>
+  <si>
+    <t>11/01/2019</t>
+  </si>
+  <si>
+    <t>INVOICE#1535</t>
+  </si>
+  <si>
+    <t>08/12/2020</t>
+  </si>
+  <si>
+    <t>INVOICE#1522</t>
+  </si>
+  <si>
+    <t>09/13/2019</t>
+  </si>
+  <si>
+    <t>09/16/2019</t>
+  </si>
+  <si>
+    <t>INVOICE#1495</t>
+  </si>
+  <si>
+    <t>07/27/2021</t>
+  </si>
+  <si>
+    <t>09/10/2021</t>
+  </si>
+  <si>
+    <t>INVOICE#2140</t>
+  </si>
+  <si>
+    <t>Veridic Solutions LLC</t>
+  </si>
+  <si>
+    <t>CLN-169</t>
+  </si>
+  <si>
+    <t>07/15/2021</t>
+  </si>
+  <si>
+    <t>08/29/2021</t>
+  </si>
+  <si>
+    <t>INVOICE#2134</t>
+  </si>
+  <si>
+    <t>05/24/2021</t>
+  </si>
+  <si>
+    <t>07/08/2021</t>
+  </si>
+  <si>
+    <t>INVOICE#2093</t>
+  </si>
+  <si>
+    <t>INVOICE#2092</t>
+  </si>
+  <si>
+    <t>INVOICE#2091</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,10 +886,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,27 +1209,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D894D9-2A5C-B946-8063-BDFF37E548A8}">
-  <dimension ref="A1:J2"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,40 +1266,2777 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3">
+        <v>7795</v>
+      </c>
+      <c r="F2" s="1">
+        <v>7795</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7275</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7275</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3640</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3640</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1">
+        <v>11960</v>
+      </c>
+      <c r="F5" s="1">
+        <v>11960</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10920</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10920</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1">
+        <v>8840</v>
+      </c>
+      <c r="F7" s="1">
+        <v>8840</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1">
+        <v>10920</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10920</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1">
+        <v>12600</v>
+      </c>
+      <c r="F9" s="1">
+        <v>12040</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1">
+        <v>11200</v>
+      </c>
+      <c r="F10" s="1">
+        <v>11200</v>
+      </c>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1">
+        <v>12600</v>
+      </c>
+      <c r="F11" s="1">
+        <v>12600</v>
+      </c>
+      <c r="G11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1">
+        <v>12600</v>
+      </c>
+      <c r="F12" s="1">
+        <v>12600</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1">
+        <v>11900</v>
+      </c>
+      <c r="F13" s="1">
+        <v>11900</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1">
+        <v>12600</v>
+      </c>
+      <c r="F14" s="1">
+        <v>12600</v>
+      </c>
+      <c r="G14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1">
+        <v>11900</v>
+      </c>
+      <c r="F15" s="1">
+        <v>11900</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" t="s">
+        <v>54</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1">
+        <v>11900</v>
+      </c>
+      <c r="F16" s="1">
+        <v>11900</v>
+      </c>
+      <c r="G16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>82</v>
+      </c>
+      <c r="L16" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1">
+        <v>13300</v>
+      </c>
+      <c r="F17" s="1">
+        <v>13300</v>
+      </c>
+      <c r="G17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" t="s">
+        <v>53</v>
+      </c>
+      <c r="M17" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1">
+        <v>11200</v>
+      </c>
+      <c r="F18" s="1">
+        <v>11200</v>
+      </c>
+      <c r="G18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>90</v>
+      </c>
+      <c r="L18" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1">
+        <v>11340</v>
+      </c>
+      <c r="F19" s="1">
+        <v>11340</v>
+      </c>
+      <c r="G19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>94</v>
+      </c>
+      <c r="L19" t="s">
+        <v>53</v>
+      </c>
+      <c r="M19" t="s">
+        <v>54</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="1">
+        <v>12740</v>
+      </c>
+      <c r="F20" s="1">
+        <v>12740</v>
+      </c>
+      <c r="G20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" t="s">
+        <v>97</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>98</v>
+      </c>
+      <c r="L20" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="1">
+        <v>11900</v>
+      </c>
+      <c r="F21" s="1">
+        <v>11900</v>
+      </c>
+      <c r="G21" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>102</v>
+      </c>
+      <c r="L21" t="s">
+        <v>53</v>
+      </c>
+      <c r="M21" t="s">
+        <v>54</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="1">
+        <v>11200</v>
+      </c>
+      <c r="F22" s="1">
+        <v>11200</v>
+      </c>
+      <c r="G22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" t="s">
+        <v>105</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>106</v>
+      </c>
+      <c r="L22" t="s">
+        <v>53</v>
+      </c>
+      <c r="M22" t="s">
+        <v>54</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="1">
+        <v>12040</v>
+      </c>
+      <c r="F23" s="1">
+        <v>12040</v>
+      </c>
+      <c r="G23" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>110</v>
+      </c>
+      <c r="L23" t="s">
+        <v>53</v>
+      </c>
+      <c r="M23" t="s">
+        <v>54</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="1">
+        <v>12600</v>
+      </c>
+      <c r="F24" s="1">
+        <v>12600</v>
+      </c>
+      <c r="G24" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I24" t="s">
+        <v>113</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>114</v>
+      </c>
+      <c r="L24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M24" t="s">
+        <v>54</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="1">
+        <v>11900</v>
+      </c>
+      <c r="F25" s="1">
+        <v>11900</v>
+      </c>
+      <c r="G25" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" t="s">
+        <v>116</v>
+      </c>
+      <c r="I25" t="s">
+        <v>107</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>117</v>
+      </c>
+      <c r="L25" t="s">
+        <v>53</v>
+      </c>
+      <c r="M25" t="s">
+        <v>54</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="1">
+        <v>12600</v>
+      </c>
+      <c r="F26" s="1">
+        <v>12600</v>
+      </c>
+      <c r="G26" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" t="s">
+        <v>119</v>
+      </c>
+      <c r="I26" t="s">
+        <v>120</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>121</v>
+      </c>
+      <c r="L26" t="s">
+        <v>53</v>
+      </c>
+      <c r="M26" t="s">
+        <v>54</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="1">
+        <v>11200</v>
+      </c>
+      <c r="F27" s="1">
+        <v>11200</v>
+      </c>
+      <c r="G27" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27" t="s">
+        <v>123</v>
+      </c>
+      <c r="I27" t="s">
+        <v>124</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>125</v>
+      </c>
+      <c r="L27" t="s">
+        <v>53</v>
+      </c>
+      <c r="M27" t="s">
+        <v>54</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="1">
+        <v>11900</v>
+      </c>
+      <c r="F28" s="1">
+        <v>11900</v>
+      </c>
+      <c r="G28" t="s">
+        <v>126</v>
+      </c>
+      <c r="H28" t="s">
+        <v>127</v>
+      </c>
+      <c r="I28" t="s">
+        <v>128</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>129</v>
+      </c>
+      <c r="L28" t="s">
+        <v>53</v>
+      </c>
+      <c r="M28" t="s">
+        <v>54</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="1">
+        <v>13300</v>
+      </c>
+      <c r="F29" s="1">
+        <v>13300</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" t="s">
+        <v>131</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>132</v>
+      </c>
+      <c r="L29" t="s">
+        <v>53</v>
+      </c>
+      <c r="M29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="1">
+        <v>11200</v>
+      </c>
+      <c r="F30" s="1">
+        <v>11200</v>
+      </c>
+      <c r="G30" t="s">
+        <v>133</v>
+      </c>
+      <c r="H30" t="s">
+        <v>134</v>
+      </c>
+      <c r="I30" t="s">
+        <v>135</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>136</v>
+      </c>
+      <c r="L30" t="s">
+        <v>53</v>
+      </c>
+      <c r="M30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="1">
+        <v>11200</v>
+      </c>
+      <c r="F31" s="1">
+        <v>11200</v>
+      </c>
+      <c r="G31" t="s">
+        <v>137</v>
+      </c>
+      <c r="H31" t="s">
+        <v>138</v>
+      </c>
+      <c r="I31" t="s">
+        <v>139</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>140</v>
+      </c>
+      <c r="L31" t="s">
+        <v>53</v>
+      </c>
+      <c r="M31" t="s">
+        <v>54</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="1">
+        <v>12040</v>
+      </c>
+      <c r="F32" s="1">
+        <v>12040</v>
+      </c>
+      <c r="G32" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" t="s">
+        <v>138</v>
+      </c>
+      <c r="I32" t="s">
+        <v>141</v>
+      </c>
+      <c r="J32" s="1">
+        <v>560</v>
+      </c>
+      <c r="K32" t="s">
+        <v>142</v>
+      </c>
+      <c r="L32" t="s">
+        <v>53</v>
+      </c>
+      <c r="M32" t="s">
+        <v>54</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="1">
+        <v>10500</v>
+      </c>
+      <c r="F33" s="1">
+        <v>10500</v>
+      </c>
+      <c r="G33" t="s">
+        <v>143</v>
+      </c>
+      <c r="H33" t="s">
+        <v>144</v>
+      </c>
+      <c r="I33" t="s">
+        <v>145</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>146</v>
+      </c>
+      <c r="L33" t="s">
+        <v>53</v>
+      </c>
+      <c r="M33" t="s">
+        <v>54</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="1">
+        <v>12600</v>
+      </c>
+      <c r="F34" s="1">
+        <v>12600</v>
+      </c>
+      <c r="G34" t="s">
+        <v>147</v>
+      </c>
+      <c r="H34" t="s">
+        <v>143</v>
+      </c>
+      <c r="I34" t="s">
+        <v>148</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>149</v>
+      </c>
+      <c r="L34" t="s">
+        <v>53</v>
+      </c>
+      <c r="M34" t="s">
+        <v>54</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="1">
+        <v>12600</v>
+      </c>
+      <c r="F35" s="1">
+        <v>12600</v>
+      </c>
+      <c r="G35" t="s">
+        <v>150</v>
+      </c>
+      <c r="H35" t="s">
+        <v>151</v>
+      </c>
+      <c r="I35" t="s">
+        <v>152</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>153</v>
+      </c>
+      <c r="L35" t="s">
+        <v>53</v>
+      </c>
+      <c r="M35" t="s">
+        <v>54</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="1">
+        <v>11200</v>
+      </c>
+      <c r="F36" s="1">
+        <v>11200</v>
+      </c>
+      <c r="G36" t="s">
+        <v>154</v>
+      </c>
+      <c r="H36" t="s">
+        <v>155</v>
+      </c>
+      <c r="I36" t="s">
+        <v>156</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>157</v>
+      </c>
+      <c r="L36" t="s">
+        <v>53</v>
+      </c>
+      <c r="M36" t="s">
+        <v>54</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="1">
+        <v>13300</v>
+      </c>
+      <c r="F37" s="1">
+        <v>13300</v>
+      </c>
+      <c r="G37" t="s">
+        <v>158</v>
+      </c>
+      <c r="H37" t="s">
+        <v>159</v>
+      </c>
+      <c r="I37" t="s">
         <v>160</v>
       </c>
-      <c r="E2">
-        <v>15010</v>
-      </c>
-      <c r="F2">
-        <v>15000</v>
-      </c>
-      <c r="G2" s="1">
-        <v>44900</v>
-      </c>
-      <c r="H2" s="1">
-        <v>44930</v>
-      </c>
-      <c r="I2" s="1">
-        <v>44988</v>
-      </c>
-      <c r="J2" s="2">
-        <v>10</v>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>161</v>
+      </c>
+      <c r="L37" t="s">
+        <v>53</v>
+      </c>
+      <c r="M37" t="s">
+        <v>54</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="1">
+        <v>11900</v>
+      </c>
+      <c r="F38" s="1">
+        <v>11900</v>
+      </c>
+      <c r="G38" t="s">
+        <v>162</v>
+      </c>
+      <c r="H38" t="s">
+        <v>163</v>
+      </c>
+      <c r="I38" t="s">
+        <v>164</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>165</v>
+      </c>
+      <c r="L38" t="s">
+        <v>53</v>
+      </c>
+      <c r="M38" t="s">
+        <v>54</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="1">
+        <v>11900</v>
+      </c>
+      <c r="F39" s="1">
+        <v>11900</v>
+      </c>
+      <c r="G39" t="s">
+        <v>166</v>
+      </c>
+      <c r="H39" t="s">
+        <v>167</v>
+      </c>
+      <c r="I39" t="s">
+        <v>168</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>169</v>
+      </c>
+      <c r="L39" t="s">
+        <v>53</v>
+      </c>
+      <c r="M39" t="s">
+        <v>54</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="1">
+        <v>12600</v>
+      </c>
+      <c r="F40" s="1">
+        <v>12600</v>
+      </c>
+      <c r="G40" t="s">
+        <v>170</v>
+      </c>
+      <c r="H40" t="s">
+        <v>171</v>
+      </c>
+      <c r="I40" t="s">
+        <v>172</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>173</v>
+      </c>
+      <c r="L40" t="s">
+        <v>53</v>
+      </c>
+      <c r="M40" t="s">
+        <v>54</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41">
+        <v>28</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="1">
+        <v>13300</v>
+      </c>
+      <c r="F41" s="1">
+        <v>13300</v>
+      </c>
+      <c r="G41" t="s">
+        <v>174</v>
+      </c>
+      <c r="H41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I41" t="s">
+        <v>176</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>177</v>
+      </c>
+      <c r="L41" t="s">
+        <v>53</v>
+      </c>
+      <c r="M41" t="s">
+        <v>54</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42">
+        <v>28</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="1">
+        <v>11200</v>
+      </c>
+      <c r="F42" s="1">
+        <v>11200</v>
+      </c>
+      <c r="G42" t="s">
+        <v>178</v>
+      </c>
+      <c r="H42" t="s">
+        <v>179</v>
+      </c>
+      <c r="I42" t="s">
+        <v>180</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>181</v>
+      </c>
+      <c r="L42" t="s">
+        <v>53</v>
+      </c>
+      <c r="M42" t="s">
+        <v>54</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>28</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="1">
+        <v>11900</v>
+      </c>
+      <c r="F43" s="1">
+        <v>11900</v>
+      </c>
+      <c r="G43" t="s">
+        <v>182</v>
+      </c>
+      <c r="H43" t="s">
+        <v>183</v>
+      </c>
+      <c r="I43" t="s">
+        <v>174</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>184</v>
+      </c>
+      <c r="L43" t="s">
+        <v>53</v>
+      </c>
+      <c r="M43" t="s">
+        <v>54</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44">
+        <v>28</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="1">
+        <v>10640</v>
+      </c>
+      <c r="F44" s="1">
+        <v>10640</v>
+      </c>
+      <c r="G44" t="s">
+        <v>185</v>
+      </c>
+      <c r="H44" t="s">
+        <v>182</v>
+      </c>
+      <c r="I44" t="s">
+        <v>178</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>186</v>
+      </c>
+      <c r="L44" t="s">
+        <v>53</v>
+      </c>
+      <c r="M44" t="s">
+        <v>54</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>28</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="1">
+        <v>11760</v>
+      </c>
+      <c r="F45" s="1">
+        <v>11760</v>
+      </c>
+      <c r="G45" t="s">
+        <v>187</v>
+      </c>
+      <c r="H45" t="s">
+        <v>188</v>
+      </c>
+      <c r="I45" t="s">
+        <v>189</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>190</v>
+      </c>
+      <c r="L45" t="s">
+        <v>53</v>
+      </c>
+      <c r="M45" t="s">
+        <v>54</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46">
+        <v>28</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>187</v>
+      </c>
+      <c r="H46" t="s">
+        <v>188</v>
+      </c>
+      <c r="I46" t="s">
+        <v>191</v>
+      </c>
+      <c r="J46" s="1">
+        <v>560</v>
+      </c>
+      <c r="K46" t="s">
+        <v>192</v>
+      </c>
+      <c r="L46" t="s">
+        <v>53</v>
+      </c>
+      <c r="M46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47">
+        <v>62</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="1">
+        <v>600</v>
+      </c>
+      <c r="F47" s="1">
+        <v>600</v>
+      </c>
+      <c r="G47" t="s">
+        <v>198</v>
+      </c>
+      <c r="H47" t="s">
+        <v>199</v>
+      </c>
+      <c r="I47" t="s">
+        <v>200</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>201</v>
+      </c>
+      <c r="L47" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" t="s">
+        <v>202</v>
+      </c>
+      <c r="N47" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>62</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="1">
+        <v>6000</v>
+      </c>
+      <c r="F48" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G48" t="s">
+        <v>198</v>
+      </c>
+      <c r="H48" t="s">
+        <v>199</v>
+      </c>
+      <c r="I48" t="s">
+        <v>200</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>204</v>
+      </c>
+      <c r="L48" t="s">
+        <v>21</v>
+      </c>
+      <c r="M48" t="s">
+        <v>202</v>
+      </c>
+      <c r="N48" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49">
+        <v>62</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F49" s="1">
+        <v>7200</v>
+      </c>
+      <c r="G49" t="s">
+        <v>205</v>
+      </c>
+      <c r="H49" t="s">
+        <v>206</v>
+      </c>
+      <c r="I49" t="s">
+        <v>207</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>208</v>
+      </c>
+      <c r="L49" t="s">
+        <v>21</v>
+      </c>
+      <c r="M49" t="s">
+        <v>202</v>
+      </c>
+      <c r="N49" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50">
+        <v>62</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="1">
+        <v>4800</v>
+      </c>
+      <c r="F50" s="1">
+        <v>4800</v>
+      </c>
+      <c r="G50" t="s">
+        <v>205</v>
+      </c>
+      <c r="H50" t="s">
+        <v>206</v>
+      </c>
+      <c r="I50" t="s">
+        <v>207</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>209</v>
+      </c>
+      <c r="L50" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50" t="s">
+        <v>202</v>
+      </c>
+      <c r="N50" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51">
+        <v>29</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1320</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1320</v>
+      </c>
+      <c r="G51" t="s">
+        <v>210</v>
+      </c>
+      <c r="H51" t="s">
+        <v>211</v>
+      </c>
+      <c r="I51" t="s">
+        <v>212</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>213</v>
+      </c>
+      <c r="L51" t="s">
+        <v>21</v>
+      </c>
+      <c r="M51" t="s">
+        <v>214</v>
+      </c>
+      <c r="N51" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52">
+        <v>29</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="1">
+        <v>9680</v>
+      </c>
+      <c r="F52" s="1">
+        <v>9680</v>
+      </c>
+      <c r="G52" t="s">
+        <v>216</v>
+      </c>
+      <c r="H52" t="s">
+        <v>217</v>
+      </c>
+      <c r="I52" t="s">
+        <v>218</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>219</v>
+      </c>
+      <c r="L52" t="s">
+        <v>21</v>
+      </c>
+      <c r="M52" t="s">
+        <v>214</v>
+      </c>
+      <c r="N52" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53">
+        <v>29</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="1">
+        <v>9487.5</v>
+      </c>
+      <c r="F53" s="1">
+        <v>9487.5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>179</v>
+      </c>
+      <c r="H53" t="s">
+        <v>220</v>
+      </c>
+      <c r="I53" t="s">
+        <v>221</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>222</v>
+      </c>
+      <c r="L53" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53" t="s">
+        <v>214</v>
+      </c>
+      <c r="N53" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54">
+        <v>29</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="1">
+        <v>8800</v>
+      </c>
+      <c r="F54" s="1">
+        <v>8800</v>
+      </c>
+      <c r="G54" t="s">
+        <v>223</v>
+      </c>
+      <c r="H54" t="s">
+        <v>196</v>
+      </c>
+      <c r="I54" t="s">
+        <v>224</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>225</v>
+      </c>
+      <c r="L54" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" t="s">
+        <v>214</v>
+      </c>
+      <c r="N54" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55">
+        <v>29</v>
+      </c>
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="1">
+        <v>9680</v>
+      </c>
+      <c r="F55" s="1">
+        <v>9680</v>
+      </c>
+      <c r="G55" t="s">
+        <v>226</v>
+      </c>
+      <c r="H55" t="s">
+        <v>197</v>
+      </c>
+      <c r="I55" t="s">
+        <v>227</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>228</v>
+      </c>
+      <c r="L55" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55" t="s">
+        <v>214</v>
+      </c>
+      <c r="N55" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56">
+        <v>29</v>
+      </c>
+      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="1">
+        <v>5720</v>
+      </c>
+      <c r="F56" s="1">
+        <v>5720</v>
+      </c>
+      <c r="G56" t="s">
+        <v>226</v>
+      </c>
+      <c r="H56" t="s">
+        <v>197</v>
+      </c>
+      <c r="I56" t="s">
+        <v>195</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>229</v>
+      </c>
+      <c r="L56" t="s">
+        <v>21</v>
+      </c>
+      <c r="M56" t="s">
+        <v>214</v>
+      </c>
+      <c r="N56" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57">
+        <v>67</v>
+      </c>
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="1">
+        <v>10080</v>
+      </c>
+      <c r="F57" s="1">
+        <v>10080</v>
+      </c>
+      <c r="G57" t="s">
+        <v>230</v>
+      </c>
+      <c r="H57" t="s">
+        <v>83</v>
+      </c>
+      <c r="I57" t="s">
+        <v>231</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>232</v>
+      </c>
+      <c r="L57" t="s">
+        <v>21</v>
+      </c>
+      <c r="M57" t="s">
+        <v>233</v>
+      </c>
+      <c r="N57" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58">
+        <v>67</v>
+      </c>
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="1">
+        <v>10080</v>
+      </c>
+      <c r="F58" s="1">
+        <v>10080</v>
+      </c>
+      <c r="G58" t="s">
+        <v>235</v>
+      </c>
+      <c r="H58" t="s">
+        <v>236</v>
+      </c>
+      <c r="I58" t="s">
+        <v>237</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>238</v>
+      </c>
+      <c r="L58" t="s">
+        <v>21</v>
+      </c>
+      <c r="M58" t="s">
+        <v>233</v>
+      </c>
+      <c r="N58" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59">
+        <v>67</v>
+      </c>
+      <c r="C59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="1">
+        <v>4800</v>
+      </c>
+      <c r="F59" s="1">
+        <v>4800</v>
+      </c>
+      <c r="G59" t="s">
+        <v>239</v>
+      </c>
+      <c r="H59" t="s">
+        <v>240</v>
+      </c>
+      <c r="I59" t="s">
+        <v>237</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0</v>
+      </c>
+      <c r="K59" t="s">
+        <v>241</v>
+      </c>
+      <c r="L59" t="s">
+        <v>21</v>
+      </c>
+      <c r="M59" t="s">
+        <v>233</v>
+      </c>
+      <c r="N59" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60">
+        <v>43</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="1">
+        <v>10080</v>
+      </c>
+      <c r="F60" s="1">
+        <v>10080</v>
+      </c>
+      <c r="G60" t="s">
+        <v>242</v>
+      </c>
+      <c r="H60" t="s">
+        <v>243</v>
+      </c>
+      <c r="I60" t="s">
+        <v>244</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>245</v>
+      </c>
+      <c r="L60" t="s">
+        <v>21</v>
+      </c>
+      <c r="M60" t="s">
+        <v>246</v>
+      </c>
+      <c r="N60" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61">
+        <v>43</v>
+      </c>
+      <c r="C61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="1">
+        <v>10560</v>
+      </c>
+      <c r="F61" s="1">
+        <v>10560</v>
+      </c>
+      <c r="G61" t="s">
+        <v>159</v>
+      </c>
+      <c r="H61" t="s">
+        <v>248</v>
+      </c>
+      <c r="I61" t="s">
+        <v>249</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>250</v>
+      </c>
+      <c r="L61" t="s">
+        <v>21</v>
+      </c>
+      <c r="M61" t="s">
+        <v>246</v>
+      </c>
+      <c r="N61" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62">
+        <v>43</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="1">
+        <v>10080</v>
+      </c>
+      <c r="F62" s="1">
+        <v>10080</v>
+      </c>
+      <c r="G62" t="s">
+        <v>193</v>
+      </c>
+      <c r="H62" t="s">
+        <v>194</v>
+      </c>
+      <c r="I62" t="s">
+        <v>251</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>252</v>
+      </c>
+      <c r="L62" t="s">
+        <v>21</v>
+      </c>
+      <c r="M62" t="s">
+        <v>246</v>
+      </c>
+      <c r="N62" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63">
+        <v>43</v>
+      </c>
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="1">
+        <v>4800</v>
+      </c>
+      <c r="F63" s="1">
+        <v>4800</v>
+      </c>
+      <c r="G63" t="s">
+        <v>163</v>
+      </c>
+      <c r="H63" t="s">
+        <v>253</v>
+      </c>
+      <c r="I63" t="s">
+        <v>254</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>255</v>
+      </c>
+      <c r="L63" t="s">
+        <v>21</v>
+      </c>
+      <c r="M63" t="s">
+        <v>246</v>
+      </c>
+      <c r="N63" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64">
+        <v>73</v>
+      </c>
+      <c r="C64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="1">
+        <v>10080</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>256</v>
+      </c>
+      <c r="H64" t="s">
+        <v>257</v>
+      </c>
+      <c r="I64" t="s">
+        <v>191</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0</v>
+      </c>
+      <c r="K64" t="s">
+        <v>258</v>
+      </c>
+      <c r="L64" t="s">
+        <v>21</v>
+      </c>
+      <c r="M64" t="s">
+        <v>259</v>
+      </c>
+      <c r="N64" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65">
+        <v>73</v>
+      </c>
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="1">
+        <v>10080</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>261</v>
+      </c>
+      <c r="H65" t="s">
+        <v>262</v>
+      </c>
+      <c r="I65" t="s">
+        <v>191</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>263</v>
+      </c>
+      <c r="L65" t="s">
+        <v>21</v>
+      </c>
+      <c r="M65" t="s">
+        <v>259</v>
+      </c>
+      <c r="N65" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66">
+        <v>73</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="1">
+        <v>10080</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>264</v>
+      </c>
+      <c r="H66" t="s">
+        <v>265</v>
+      </c>
+      <c r="I66" t="s">
+        <v>191</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>266</v>
+      </c>
+      <c r="L66" t="s">
+        <v>21</v>
+      </c>
+      <c r="M66" t="s">
+        <v>259</v>
+      </c>
+      <c r="N66" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67">
+        <v>73</v>
+      </c>
+      <c r="C67" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="1">
+        <v>10080</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>264</v>
+      </c>
+      <c r="H67" t="s">
+        <v>265</v>
+      </c>
+      <c r="I67" t="s">
+        <v>191</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>267</v>
+      </c>
+      <c r="L67" t="s">
+        <v>21</v>
+      </c>
+      <c r="M67" t="s">
+        <v>259</v>
+      </c>
+      <c r="N67" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68">
+        <v>73</v>
+      </c>
+      <c r="C68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="1">
+        <v>9600</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>264</v>
+      </c>
+      <c r="H68" t="s">
+        <v>265</v>
+      </c>
+      <c r="I68" t="s">
+        <v>191</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>268</v>
+      </c>
+      <c r="L68" t="s">
+        <v>21</v>
+      </c>
+      <c r="M68" t="s">
+        <v>259</v>
+      </c>
+      <c r="N68" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O68" xr:uid="{D6D894D9-2A5C-B946-8063-BDFF37E548A8}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="一"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>